--- a/installer/3120lCyclogramInstall/source/files/tmplt_report.xlsx
+++ b/installer/3120lCyclogramInstall/source/files/tmplt_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mera Files\3120Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Oburec\delphi\2011\OburecGH\installer\3120lCyclogramInstall\source\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +492,7 @@
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="str">
         <f ca="1">CELL("имяфайла")</f>
-        <v>C:\Mera Files\3120Base\[tmplt_report.xlsx]Recorder_Tags</v>
+        <v>F:\Oburec\delphi\2011\OburecGH\installer\3120lCyclogramInstall\source\files\[tmplt_report.xlsx]Recorder_Tags</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
